--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_2_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_2_bus_resonant.xlsx
@@ -755,16 +755,16 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574464</v>
       </c>
       <c r="P2">
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.9896511673971</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201599</v>
       </c>
       <c r="S2">
         <v>153.5693903185486</v>
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214669992</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512941</v>
+        <v>0.2917056037512956</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644379</v>
+        <v>0.8906876332644393</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062566</v>
+        <v>7.091324389062635</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550794</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726614</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937071</v>
+        <v>3.709154423937056</v>
       </c>
       <c r="D4">
-        <v>3.709154423937071</v>
+        <v>3.709154423937056</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251901</v>
       </c>
       <c r="G4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251901</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032092</v>
+        <v>0.9526279648032081</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047555</v>
+        <v>0.9526279648047562</v>
       </c>
       <c r="Q4">
-        <v>-1.248512564096677E-11</v>
+        <v>-1.23848654564764E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999813</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647942846</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136791</v>
+        <v>0.95262796481368</v>
       </c>
       <c r="Q5">
-        <v>4.605491295463881E-10</v>
+        <v>4.606489451618451E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647942845</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136791</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q6">
-        <v>4.605468747922933E-10</v>
+        <v>4.606439481764422E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
   </sheetData>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210917</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710721</v>
+        <v>0.7617779018710719</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869522</v>
+        <v>0.9348070984869526</v>
       </c>
       <c r="Q3">
         <v>19.43181595267038</v>
@@ -1204,52 +1204,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675502</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675502</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744274</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744274</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
         <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551817</v>
+        <v>0.6233452632551814</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011534</v>
+        <v>0.922941106001154</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943076</v>
+        <v>16.25665454943077</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376842</v>
       </c>
       <c r="S4">
         <v>160.9543898286496</v>
@@ -1302,13 +1302,13 @@
         <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067902</v>
+        <v>0.9229411060067908</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962343</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366565</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1361,13 +1361,13 @@
         <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067902</v>
+        <v>0.9229411060067908</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962343</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366565</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210917</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710721</v>
+        <v>0.7617779018710719</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869522</v>
+        <v>0.9348070984869526</v>
       </c>
       <c r="Q3">
         <v>19.43181595267038</v>
@@ -1571,52 +1571,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675502</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675502</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744274</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744274</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
         <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551817</v>
+        <v>0.6233452632551814</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011534</v>
+        <v>0.922941106001154</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943076</v>
+        <v>16.25665454943077</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376842</v>
       </c>
       <c r="S4">
         <v>160.9543898286496</v>
@@ -1669,13 +1669,13 @@
         <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067902</v>
+        <v>0.9229411060067908</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962343</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366565</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1728,13 +1728,13 @@
         <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067902</v>
+        <v>0.9229411060067908</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962343</v>
+        <v>16.25665454962344</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366565</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989459</v>
+        <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.8500049525414021</v>
+        <v>0.8500049525414025</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457217</v>
+        <v>0.946859830945722</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808853</v>
       </c>
       <c r="R2">
         <v>-92.65381631331513</v>
@@ -1912,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370796</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030117</v>
+        <v>0.361720183503013</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411116</v>
+        <v>0.7649715466411124</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274461</v>
+        <v>8.150888684274552</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.091543224189</v>
       </c>
       <c r="S3">
         <v>169.4262793833645</v>
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515517</v>
       </c>
       <c r="D4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515517</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973875</v>
+        <v>36.0161008197386</v>
       </c>
       <c r="G4">
-        <v>36.01610081973875</v>
+        <v>36.0161008197386</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880062</v>
+        <v>0.8660254037880064</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.8660254037883346</v>
       </c>
       <c r="Q4">
-        <v>1.723167982753071E-10</v>
+        <v>1.724441259494563E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798936</v>
+        <v>0.8660254037798938</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403796447</v>
+        <v>0.8660254037964472</v>
       </c>
       <c r="Q5">
-        <v>1.080548856641458E-09</v>
+        <v>1.08067511829316E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989111</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798936</v>
+        <v>0.8660254037798938</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403796447</v>
+        <v>0.8660254037964472</v>
       </c>
       <c r="Q6">
-        <v>1.080547561459799E-09</v>
+        <v>1.080674542930099E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989111</v>
       </c>
     </row>
   </sheetData>
@@ -2220,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989459</v>
+        <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.8500049525414021</v>
+        <v>0.8500049525414025</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457217</v>
+        <v>0.946859830945722</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808853</v>
       </c>
       <c r="R2">
         <v>-92.65381631331513</v>
@@ -2279,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370796</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030117</v>
+        <v>0.361720183503013</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411116</v>
+        <v>0.7649715466411124</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274461</v>
+        <v>8.150888684274552</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.091543224189</v>
       </c>
       <c r="S3">
         <v>169.4262793833645</v>
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515517</v>
       </c>
       <c r="D4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515517</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973875</v>
+        <v>36.0161008197386</v>
       </c>
       <c r="G4">
-        <v>36.01610081973875</v>
+        <v>36.0161008197386</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880062</v>
+        <v>0.8660254037880064</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.8660254037883346</v>
       </c>
       <c r="Q4">
-        <v>1.723167982753071E-10</v>
+        <v>1.724441259494563E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798936</v>
+        <v>0.8660254037798938</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403796447</v>
+        <v>0.8660254037964472</v>
       </c>
       <c r="Q5">
-        <v>1.080548856641458E-09</v>
+        <v>1.08067511829316E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989111</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798936</v>
+        <v>0.8660254037798938</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403796447</v>
+        <v>0.8660254037964472</v>
       </c>
       <c r="Q6">
-        <v>1.080547561459799E-09</v>
+        <v>1.080674542930099E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989111</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2599,7 @@
         <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751169</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
         <v>0.7086876959566595</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941325</v>
+        <v>0.8449321159941328</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474869</v>
+        <v>19.6117626647487</v>
       </c>
       <c r="R3">
         <v>-105.2709110729077</v>
@@ -2672,49 +2672,49 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092602</v>
       </c>
       <c r="D4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092602</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040605</v>
       </c>
       <c r="G4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040605</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
         <v>0.9573399675119608</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775462</v>
+        <v>0.5367995610775467</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863313</v>
+        <v>0.8529812840863319</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155595</v>
+        <v>15.93288697155596</v>
       </c>
       <c r="R4">
         <v>-101.7238138495564</v>
@@ -2767,10 +2767,10 @@
         <v>0.9573399675083651</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863945</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931517</v>
       </c>
       <c r="Q5">
         <v>15.93288697196765</v>
@@ -2779,7 +2779,7 @@
         <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>162.0554462535385</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083649</v>
+        <v>0.9573399675083651</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863945</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931515</v>
       </c>
       <c r="Q6">
         <v>15.93288697196765</v>
@@ -2838,7 +2838,7 @@
         <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>162.0554462535385</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2966,7 @@
         <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751169</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -3013,16 +3013,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
         <v>0.7086876959566595</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941325</v>
+        <v>0.8449321159941328</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474869</v>
+        <v>19.6117626647487</v>
       </c>
       <c r="R3">
         <v>-105.2709110729077</v>
@@ -3039,49 +3039,49 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092602</v>
       </c>
       <c r="D4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092602</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040605</v>
       </c>
       <c r="G4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040605</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
         <v>0.9573399675119608</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775462</v>
+        <v>0.5367995610775467</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863313</v>
+        <v>0.8529812840863319</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155595</v>
+        <v>15.93288697155596</v>
       </c>
       <c r="R4">
         <v>-101.7238138495564</v>
@@ -3134,10 +3134,10 @@
         <v>0.9573399675083651</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863945</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931517</v>
       </c>
       <c r="Q5">
         <v>15.93288697196765</v>
@@ -3146,7 +3146,7 @@
         <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>162.0554462535385</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083649</v>
+        <v>0.9573399675083651</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863945</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931515</v>
       </c>
       <c r="Q6">
         <v>15.93288697196765</v>
@@ -3205,7 +3205,7 @@
         <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>162.0554462535385</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087854709763568</v>
+        <v>1.100591808650795</v>
       </c>
       <c r="O2">
-        <v>1.1000000238424</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.0877289755994</v>
+        <v>1.100665575334974</v>
       </c>
       <c r="Q2">
-        <v>30.37760042303353</v>
+        <v>29.97777877322319</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6337002390815</v>
+        <v>150.015564917735</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.034746412174317</v>
+        <v>1.103224157800752</v>
       </c>
       <c r="O3">
-        <v>1.100000023842562</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>1.038227347360722</v>
+        <v>1.103408627126512</v>
       </c>
       <c r="Q3">
-        <v>31.89480795713589</v>
+        <v>29.89228819778966</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>147.7978322892982</v>
+        <v>150.0910528079856</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6419915686052314</v>
+        <v>0.0331634202124118</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.413080099034009</v>
+        <v>0.3829381917376927</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.130372151309031</v>
+        <v>0.6620035349790402</v>
       </c>
       <c r="I4">
-        <v>53.31280873460583</v>
+        <v>-1154.80579411954</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743489</v>
+        <v>0.6277319161403394</v>
       </c>
       <c r="K4">
-        <v>2.89843869796027</v>
+        <v>2.898438697954764</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.6277319163805473</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.89843869795916</v>
       </c>
       <c r="N4">
-        <v>1.025589789387375</v>
+        <v>1.103641236897156</v>
       </c>
       <c r="O4">
-        <v>1.100000023842562</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>1.013045203623771</v>
+        <v>1.104686187422951</v>
       </c>
       <c r="Q4">
-        <v>33.20328684475329</v>
+        <v>29.82813124654962</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>147.8970114821342</v>
+        <v>150.077477756421</v>
       </c>
       <c r="T4">
-        <v>0.6419915686052314</v>
+        <v>0.0331634202124118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.025589789389412</v>
+        <v>1.10364123689705</v>
       </c>
       <c r="O5">
-        <v>1.100000023842562</v>
+        <v>1.100000023841828</v>
       </c>
       <c r="P5">
-        <v>1.013045203624348</v>
+        <v>1.104686187422908</v>
       </c>
       <c r="Q5">
-        <v>33.20328684477008</v>
+        <v>29.82813124654901</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>147.8970114822459</v>
+        <v>150.077477756416</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.025589789389412</v>
+        <v>1.10364123689705</v>
       </c>
       <c r="O6">
-        <v>1.100000023842562</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>1.013045203624349</v>
+        <v>1.104686187422908</v>
       </c>
       <c r="Q6">
-        <v>33.20328684477007</v>
+        <v>29.828131246549</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.8970114822459</v>
+        <v>150.077477756416</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087854709763568</v>
+        <v>1.100591808650795</v>
       </c>
       <c r="O2">
-        <v>1.1000000238424</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.0877289755994</v>
+        <v>1.100665575334974</v>
       </c>
       <c r="Q2">
-        <v>30.37760042303353</v>
+        <v>29.97777877322319</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6337002390815</v>
+        <v>150.015564917735</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.034746412174317</v>
+        <v>1.103224157800752</v>
       </c>
       <c r="O3">
-        <v>1.100000023842562</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>1.038227347360722</v>
+        <v>1.103408627126512</v>
       </c>
       <c r="Q3">
-        <v>31.89480795713589</v>
+        <v>29.89228819778966</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>147.7978322892982</v>
+        <v>150.0910528079856</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6419915686052314</v>
+        <v>0.0331634202124118</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.413080099034009</v>
+        <v>0.3829381917376927</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.130372151309031</v>
+        <v>0.6620035349790402</v>
       </c>
       <c r="I4">
-        <v>53.31280873460583</v>
+        <v>-1154.80579411954</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743489</v>
+        <v>0.6277319161403394</v>
       </c>
       <c r="K4">
-        <v>2.89843869796027</v>
+        <v>2.898438697954764</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.6277319163805473</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.89843869795916</v>
       </c>
       <c r="N4">
-        <v>1.025589789387375</v>
+        <v>1.103641236897156</v>
       </c>
       <c r="O4">
-        <v>1.100000023842562</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>1.013045203623771</v>
+        <v>1.104686187422951</v>
       </c>
       <c r="Q4">
-        <v>33.20328684475329</v>
+        <v>29.82813124654962</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>147.8970114821342</v>
+        <v>150.077477756421</v>
       </c>
       <c r="T4">
-        <v>0.6419915686052314</v>
+        <v>0.0331634202124118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.025589789389412</v>
+        <v>1.10364123689705</v>
       </c>
       <c r="O5">
-        <v>1.100000023842562</v>
+        <v>1.100000023841828</v>
       </c>
       <c r="P5">
-        <v>1.013045203624348</v>
+        <v>1.104686187422908</v>
       </c>
       <c r="Q5">
-        <v>33.20328684477008</v>
+        <v>29.82813124654901</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>147.8970114822459</v>
+        <v>150.077477756416</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.025589789389412</v>
+        <v>1.10364123689705</v>
       </c>
       <c r="O6">
-        <v>1.100000023842562</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>1.013045203624349</v>
+        <v>1.104686187422908</v>
       </c>
       <c r="Q6">
-        <v>33.20328684477007</v>
+        <v>29.828131246549</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.8970114822459</v>
+        <v>150.077477756416</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089779369446238</v>
+        <v>1.100593793151621</v>
       </c>
       <c r="O2">
-        <v>1.100000023842342</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.091626963283862</v>
+        <v>1.100678256888956</v>
       </c>
       <c r="Q2">
-        <v>30.19922580089424</v>
+        <v>29.97707589826097</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6345651618064</v>
+        <v>150.0153025312211</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.045444086491037</v>
+        <v>1.103238431661276</v>
       </c>
       <c r="O3">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P3">
-        <v>1.058620384223807</v>
+        <v>1.103476512349051</v>
       </c>
       <c r="Q3">
-        <v>30.93319482001629</v>
+        <v>29.88864040653267</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999741</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>147.8966545435393</v>
+        <v>150.0898588174866</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4957576224237678</v>
+        <v>0.03359839459101933</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.724515935183423</v>
+        <v>0.3879608432292855</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.130372151309031</v>
+        <v>0.6620035349790402</v>
       </c>
       <c r="I4">
-        <v>53.31280873460583</v>
+        <v>-1154.80579411954</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743489</v>
+        <v>0.6277319161403394</v>
       </c>
       <c r="K4">
-        <v>2.89843869796027</v>
+        <v>2.898438697954764</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.6277319163805473</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.89843869795916</v>
       </c>
       <c r="N4">
-        <v>1.034939813087542</v>
+        <v>1.103644453004215</v>
       </c>
       <c r="O4">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P4">
-        <v>1.039238165307004</v>
+        <v>1.104767213273832</v>
       </c>
       <c r="Q4">
-        <v>31.83778581150034</v>
+        <v>29.82335906455557</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999739</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>147.7825912654873</v>
+        <v>150.075220058221</v>
       </c>
       <c r="T4">
-        <v>0.4957576224237677</v>
+        <v>0.03359839459101932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.034939813089036</v>
+        <v>1.103644453004107</v>
       </c>
       <c r="O5">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P5">
-        <v>1.03923816530717</v>
+        <v>1.104767213273787</v>
       </c>
       <c r="Q5">
-        <v>31.83778581153035</v>
+        <v>29.823359064555</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999737</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>147.7825912655745</v>
+        <v>150.0752200582159</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034939813089036</v>
+        <v>1.103644453004108</v>
       </c>
       <c r="O6">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P6">
-        <v>1.03923816530717</v>
+        <v>1.104767213273787</v>
       </c>
       <c r="Q6">
-        <v>31.83778581153034</v>
+        <v>29.82335906455501</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999739</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>147.7825912655745</v>
+        <v>150.0752200582159</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089779369446238</v>
+        <v>1.100593793151621</v>
       </c>
       <c r="O2">
-        <v>1.100000023842342</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.091626963283862</v>
+        <v>1.100678256888956</v>
       </c>
       <c r="Q2">
-        <v>30.19922580089424</v>
+        <v>29.97707589826097</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6345651618064</v>
+        <v>150.0153025312211</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.045444086491037</v>
+        <v>1.103238431661276</v>
       </c>
       <c r="O3">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P3">
-        <v>1.058620384223807</v>
+        <v>1.103476512349051</v>
       </c>
       <c r="Q3">
-        <v>30.93319482001629</v>
+        <v>29.88864040653267</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999741</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>147.8966545435393</v>
+        <v>150.0898588174866</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4957576224237678</v>
+        <v>0.03359839459101933</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.724515935183423</v>
+        <v>0.3879608432292855</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.130372151309031</v>
+        <v>0.6620035349790402</v>
       </c>
       <c r="I4">
-        <v>53.31280873460583</v>
+        <v>-1154.80579411954</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743489</v>
+        <v>0.6277319161403394</v>
       </c>
       <c r="K4">
-        <v>2.89843869796027</v>
+        <v>2.898438697954764</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.6277319163805473</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.89843869795916</v>
       </c>
       <c r="N4">
-        <v>1.034939813087542</v>
+        <v>1.103644453004215</v>
       </c>
       <c r="O4">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P4">
-        <v>1.039238165307004</v>
+        <v>1.104767213273832</v>
       </c>
       <c r="Q4">
-        <v>31.83778581150034</v>
+        <v>29.82335906455557</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999739</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>147.7825912654873</v>
+        <v>150.075220058221</v>
       </c>
       <c r="T4">
-        <v>0.4957576224237677</v>
+        <v>0.03359839459101932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.034939813089036</v>
+        <v>1.103644453004107</v>
       </c>
       <c r="O5">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P5">
-        <v>1.03923816530717</v>
+        <v>1.104767213273787</v>
       </c>
       <c r="Q5">
-        <v>31.83778581153035</v>
+        <v>29.823359064555</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999737</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>147.7825912655745</v>
+        <v>150.0752200582159</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034939813089036</v>
+        <v>1.103644453004108</v>
       </c>
       <c r="O6">
-        <v>1.10000002384261</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P6">
-        <v>1.03923816530717</v>
+        <v>1.104767213273787</v>
       </c>
       <c r="Q6">
-        <v>31.83778581153034</v>
+        <v>29.82335906455501</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999739</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>147.7825912655745</v>
+        <v>150.0752200582159</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.987079727026819</v>
+        <v>1.000610867001135</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998331</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="P2">
-        <v>0.9880992689238464</v>
+        <v>1.000688112211095</v>
       </c>
       <c r="Q2">
-        <v>30.36618448653481</v>
+        <v>29.97469754428209</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5330643477838</v>
+        <v>150.0176350449538</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9362853996055801</v>
+        <v>1.003064107355172</v>
       </c>
       <c r="O3">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P3">
-        <v>0.9452930403220203</v>
+        <v>1.003248536335085</v>
       </c>
       <c r="Q3">
-        <v>31.66650858983613</v>
+        <v>29.88681140423037</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>147.4591193945128</v>
+        <v>150.0948668554914</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5758500660696445</v>
+        <v>0.03015421904736654</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.649343813163461</v>
+        <v>0.3481909296840003</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.93012958641294</v>
+        <v>1.270895224170312</v>
       </c>
       <c r="I4">
-        <v>53.27973681810553</v>
+        <v>-1154.802470959661</v>
       </c>
       <c r="J4">
-        <v>1.113751880280642</v>
+        <v>1.113751880145908</v>
       </c>
       <c r="K4">
-        <v>3.006397543745802</v>
+        <v>3.006397543739603</v>
       </c>
       <c r="L4">
-        <v>1.113751880232718</v>
+        <v>1.113751880248359</v>
       </c>
       <c r="M4">
-        <v>3.006397543745523</v>
+        <v>3.006397543745398</v>
       </c>
       <c r="N4">
-        <v>0.9318568163576769</v>
+        <v>1.003081483865577</v>
       </c>
       <c r="O4">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P4">
-        <v>0.9134414119943075</v>
+        <v>1.00476787699921</v>
       </c>
       <c r="Q4">
-        <v>33.69670351315927</v>
+        <v>29.78694203772194</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>148.0769760729985</v>
+        <v>150.0454840195248</v>
       </c>
       <c r="T4">
-        <v>0.5758500660696444</v>
+        <v>0.03015421904736654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9318568163605366</v>
+        <v>1.003081483865432</v>
       </c>
       <c r="O5">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P5">
-        <v>0.9134414119961243</v>
+        <v>1.004767876999092</v>
       </c>
       <c r="Q5">
-        <v>33.69670351311633</v>
+        <v>29.7869420377249</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>148.0769760731438</v>
+        <v>150.0454840195192</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9318568163605366</v>
+        <v>1.003081483865432</v>
       </c>
       <c r="O6">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P6">
-        <v>0.9134414119961243</v>
+        <v>1.004767876999092</v>
       </c>
       <c r="Q6">
-        <v>33.69670351311633</v>
+        <v>29.7869420377249</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999768</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>148.0769760731438</v>
+        <v>150.0454840195192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.987079727026819</v>
+        <v>1.000610867001135</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998331</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="P2">
-        <v>0.9880992689238464</v>
+        <v>1.000688112211095</v>
       </c>
       <c r="Q2">
-        <v>30.36618448653481</v>
+        <v>29.97469754428209</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5330643477838</v>
+        <v>150.0176350449538</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9362853996055801</v>
+        <v>1.003064107355172</v>
       </c>
       <c r="O3">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P3">
-        <v>0.9452930403220203</v>
+        <v>1.003248536335085</v>
       </c>
       <c r="Q3">
-        <v>31.66650858983613</v>
+        <v>29.88681140423037</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>147.4591193945128</v>
+        <v>150.0948668554914</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5758500660696445</v>
+        <v>0.03015421904736654</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.649343813163461</v>
+        <v>0.3481909296840003</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.93012958641294</v>
+        <v>1.270895224170312</v>
       </c>
       <c r="I4">
-        <v>53.27973681810553</v>
+        <v>-1154.802470959661</v>
       </c>
       <c r="J4">
-        <v>1.113751880280642</v>
+        <v>1.113751880145908</v>
       </c>
       <c r="K4">
-        <v>3.006397543745802</v>
+        <v>3.006397543739603</v>
       </c>
       <c r="L4">
-        <v>1.113751880232718</v>
+        <v>1.113751880248359</v>
       </c>
       <c r="M4">
-        <v>3.006397543745523</v>
+        <v>3.006397543745398</v>
       </c>
       <c r="N4">
-        <v>0.9318568163576769</v>
+        <v>1.003081483865577</v>
       </c>
       <c r="O4">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P4">
-        <v>0.9134414119943075</v>
+        <v>1.00476787699921</v>
       </c>
       <c r="Q4">
-        <v>33.69670351315927</v>
+        <v>29.78694203772194</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>148.0769760729985</v>
+        <v>150.0454840195248</v>
       </c>
       <c r="T4">
-        <v>0.5758500660696444</v>
+        <v>0.03015421904736654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9318568163605366</v>
+        <v>1.003081483865432</v>
       </c>
       <c r="O5">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P5">
-        <v>0.9134414119961243</v>
+        <v>1.004767876999092</v>
       </c>
       <c r="Q5">
-        <v>33.69670351311633</v>
+        <v>29.7869420377249</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>148.0769760731438</v>
+        <v>150.0454840195192</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9318568163605366</v>
+        <v>1.003081483865432</v>
       </c>
       <c r="O6">
-        <v>1.000000000000505</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P6">
-        <v>0.9134414119961243</v>
+        <v>1.004767876999092</v>
       </c>
       <c r="Q6">
-        <v>33.69670351311633</v>
+        <v>29.7869420377249</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999768</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>148.0769760731438</v>
+        <v>150.0454840195192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9894467796903355</v>
+        <v>1.000612879899291</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997466</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.9919532365951939</v>
+        <v>1.000701203010354</v>
       </c>
       <c r="Q2">
-        <v>30.18696167336019</v>
+        <v>29.97389827780649</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5650823679848</v>
+        <v>150.0173346896007</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9482607971999316</v>
+        <v>1.003077445684695</v>
       </c>
       <c r="O3">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999666</v>
       </c>
       <c r="P3">
-        <v>0.9636400199509818</v>
+        <v>1.003313076816424</v>
       </c>
       <c r="Q3">
-        <v>30.78227870535009</v>
+        <v>29.88298908235554</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.7155818960568</v>
+        <v>150.0936022981808</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4416440016015812</v>
+        <v>0.03054923425400845</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.099665664213128</v>
+        <v>0.3527521724017744</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.93012958641294</v>
+        <v>1.270895224170312</v>
       </c>
       <c r="I4">
-        <v>53.27973681810553</v>
+        <v>-1154.802470959661</v>
       </c>
       <c r="J4">
-        <v>1.113751880280642</v>
+        <v>1.113751880145908</v>
       </c>
       <c r="K4">
-        <v>3.006397543745802</v>
+        <v>3.006397543739603</v>
       </c>
       <c r="L4">
-        <v>1.113751880232718</v>
+        <v>1.113751880248359</v>
       </c>
       <c r="M4">
-        <v>3.006397543745523</v>
+        <v>3.006397543745398</v>
       </c>
       <c r="N4">
-        <v>0.9404460387014987</v>
+        <v>1.003071684242896</v>
       </c>
       <c r="O4">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P4">
-        <v>0.938315312733644</v>
+        <v>1.004840586781796</v>
       </c>
       <c r="Q4">
-        <v>32.26195216249981</v>
+        <v>29.78180716052862</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.9447511468696</v>
+        <v>150.0424182519806</v>
       </c>
       <c r="T4">
-        <v>0.4416440016015811</v>
+        <v>0.03054923425400845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9404460387037527</v>
+        <v>1.00307168424275</v>
       </c>
       <c r="O5">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P5">
-        <v>0.9383153127347382</v>
+        <v>1.004840586781676</v>
       </c>
       <c r="Q5">
-        <v>32.26195216249188</v>
+        <v>29.78180716053173</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.9447511469902</v>
+        <v>150.042418251975</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9404460387037527</v>
+        <v>1.00307168424275</v>
       </c>
       <c r="O6">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P6">
-        <v>0.9383153127347382</v>
+        <v>1.004840586781676</v>
       </c>
       <c r="Q6">
-        <v>32.26195216249188</v>
+        <v>29.78180716053174</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999737</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>147.9447511469902</v>
+        <v>150.042418251975</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9894467796903355</v>
+        <v>1.000612879899291</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997466</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.9919532365951939</v>
+        <v>1.000701203010354</v>
       </c>
       <c r="Q2">
-        <v>30.18696167336019</v>
+        <v>29.97389827780649</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5650823679848</v>
+        <v>150.0173346896007</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9482607971999316</v>
+        <v>1.003077445684695</v>
       </c>
       <c r="O3">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999666</v>
       </c>
       <c r="P3">
-        <v>0.9636400199509818</v>
+        <v>1.003313076816424</v>
       </c>
       <c r="Q3">
-        <v>30.78227870535009</v>
+        <v>29.88298908235554</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.7155818960568</v>
+        <v>150.0936022981808</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4416440016015812</v>
+        <v>0.03054923425400845</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.099665664213128</v>
+        <v>0.3527521724017744</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.93012958641294</v>
+        <v>1.270895224170312</v>
       </c>
       <c r="I4">
-        <v>53.27973681810553</v>
+        <v>-1154.802470959661</v>
       </c>
       <c r="J4">
-        <v>1.113751880280642</v>
+        <v>1.113751880145908</v>
       </c>
       <c r="K4">
-        <v>3.006397543745802</v>
+        <v>3.006397543739603</v>
       </c>
       <c r="L4">
-        <v>1.113751880232718</v>
+        <v>1.113751880248359</v>
       </c>
       <c r="M4">
-        <v>3.006397543745523</v>
+        <v>3.006397543745398</v>
       </c>
       <c r="N4">
-        <v>0.9404460387014987</v>
+        <v>1.003071684242896</v>
       </c>
       <c r="O4">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P4">
-        <v>0.938315312733644</v>
+        <v>1.004840586781796</v>
       </c>
       <c r="Q4">
-        <v>32.26195216249981</v>
+        <v>29.78180716052862</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.9447511468696</v>
+        <v>150.0424182519806</v>
       </c>
       <c r="T4">
-        <v>0.4416440016015811</v>
+        <v>0.03054923425400845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9404460387037527</v>
+        <v>1.00307168424275</v>
       </c>
       <c r="O5">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P5">
-        <v>0.9383153127347382</v>
+        <v>1.004840586781676</v>
       </c>
       <c r="Q5">
-        <v>32.26195216249188</v>
+        <v>29.78180716053173</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.9447511469902</v>
+        <v>150.042418251975</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9404460387037527</v>
+        <v>1.00307168424275</v>
       </c>
       <c r="O6">
-        <v>1.000000000000275</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P6">
-        <v>0.9383153127347382</v>
+        <v>1.004840586781676</v>
       </c>
       <c r="Q6">
-        <v>32.26195216249188</v>
+        <v>29.78180716053174</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999737</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>147.9447511469902</v>
+        <v>150.042418251975</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066698700333201</v>
+        <v>1.070248752651329</v>
       </c>
       <c r="O2">
-        <v>0.9380319009575733</v>
+        <v>0.9380319009574394</v>
       </c>
       <c r="P2">
-        <v>1.050048672725303</v>
+        <v>1.053664365177776</v>
       </c>
       <c r="Q2">
-        <v>26.08286241920851</v>
+        <v>25.98453238300154</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201104</v>
+        <v>-91.13019952201559</v>
       </c>
       <c r="S2">
-        <v>153.4802442276872</v>
+        <v>153.5728784249458</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.011658320895874</v>
+        <v>1.032551645514616</v>
       </c>
       <c r="O3">
-        <v>0.2917056037511645</v>
+        <v>0.2917056037512604</v>
       </c>
       <c r="P3">
-        <v>0.8709762216309568</v>
+        <v>0.8916376219342326</v>
       </c>
       <c r="Q3">
-        <v>7.192655428016055</v>
+        <v>7.082299707892182</v>
       </c>
       <c r="R3">
-        <v>-119.1713773549987</v>
+        <v>-119.1713773550716</v>
       </c>
       <c r="S3">
-        <v>171.5463513679723</v>
+        <v>171.7853508143226</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.690286004605434</v>
+        <v>3.710918330619162</v>
       </c>
       <c r="D4">
-        <v>3.735982987435711</v>
+        <v>3.70740807937758</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.61175236291312</v>
+        <v>42.8499939424738</v>
       </c>
       <c r="G4">
-        <v>43.1394156696774</v>
+        <v>42.80946105248879</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
-        <v>0.9271486224980959</v>
+        <v>0.9538247792887724</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9271486225001982</v>
+        <v>0.9538247792903827</v>
       </c>
       <c r="Q4">
-        <v>0.2095971264322163</v>
+        <v>-0.01563331417212315</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.7904028735454</v>
+        <v>179.9843666858447</v>
       </c>
       <c r="T4">
-        <v>0.3467754229168744</v>
+        <v>0.01651922128241505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9271486224896219</v>
+        <v>0.9538247792798251</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9271486225095138</v>
+        <v>0.9538247792992874</v>
       </c>
       <c r="Q5">
-        <v>0.2095971269427282</v>
+        <v>-0.01563331370077192</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.790402874011</v>
+        <v>179.9843666853714</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9271486224896219</v>
+        <v>0.9538247792798253</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.927148622509514</v>
+        <v>0.9538247792992874</v>
       </c>
       <c r="Q6">
-        <v>0.2095971269427214</v>
+        <v>-0.01563331370077597</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.790402874011</v>
+        <v>179.9843666853714</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066698700333201</v>
+        <v>1.070248752651329</v>
       </c>
       <c r="O2">
-        <v>0.9380319009575733</v>
+        <v>0.9380319009574394</v>
       </c>
       <c r="P2">
-        <v>1.050048672725303</v>
+        <v>1.053664365177776</v>
       </c>
       <c r="Q2">
-        <v>26.08286241920851</v>
+        <v>25.98453238300154</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201104</v>
+        <v>-91.13019952201559</v>
       </c>
       <c r="S2">
-        <v>153.4802442276872</v>
+        <v>153.5728784249458</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.011658320895874</v>
+        <v>1.032551645514616</v>
       </c>
       <c r="O3">
-        <v>0.2917056037511645</v>
+        <v>0.2917056037512604</v>
       </c>
       <c r="P3">
-        <v>0.8709762216309568</v>
+        <v>0.8916376219342326</v>
       </c>
       <c r="Q3">
-        <v>7.192655428016055</v>
+        <v>7.082299707892182</v>
       </c>
       <c r="R3">
-        <v>-119.1713773549987</v>
+        <v>-119.1713773550716</v>
       </c>
       <c r="S3">
-        <v>171.5463513679723</v>
+        <v>171.7853508143226</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.690286004605434</v>
+        <v>3.710918330619162</v>
       </c>
       <c r="D4">
-        <v>3.735982987435711</v>
+        <v>3.70740807937758</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.61175236291312</v>
+        <v>42.8499939424738</v>
       </c>
       <c r="G4">
-        <v>43.1394156696774</v>
+        <v>42.80946105248879</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
-        <v>0.9271486224980959</v>
+        <v>0.9538247792887724</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9271486225001982</v>
+        <v>0.9538247792903827</v>
       </c>
       <c r="Q4">
-        <v>0.2095971264322163</v>
+        <v>-0.01563331417212315</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.7904028735454</v>
+        <v>179.9843666858447</v>
       </c>
       <c r="T4">
-        <v>0.3467754229168744</v>
+        <v>0.01651922128241505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9271486224896219</v>
+        <v>0.9538247792798251</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9271486225095138</v>
+        <v>0.9538247792992874</v>
       </c>
       <c r="Q5">
-        <v>0.2095971269427282</v>
+        <v>-0.01563331370077192</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.790402874011</v>
+        <v>179.9843666853714</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9271486224896219</v>
+        <v>0.9538247792798253</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.927148622509514</v>
+        <v>0.9538247792992874</v>
       </c>
       <c r="Q6">
-        <v>0.2095971269427214</v>
+        <v>-0.01563331370077597</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.790402874011</v>
+        <v>179.9843666853714</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097148765520123</v>
+        <v>1.100328518102062</v>
       </c>
       <c r="O2">
-        <v>1.056966443489822</v>
+        <v>1.056966443489691</v>
       </c>
       <c r="P2">
-        <v>1.075792565945829</v>
+        <v>1.078684043328445</v>
       </c>
       <c r="Q2">
-        <v>28.76936937211673</v>
+        <v>28.69494879994408</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127293</v>
+        <v>-91.34292556127387</v>
       </c>
       <c r="S2">
-        <v>150.5679533869586</v>
+        <v>150.6714563446488</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097358418734905</v>
+        <v>1.11497583127695</v>
       </c>
       <c r="O3">
-        <v>0.8910570420389482</v>
+        <v>0.8910570420388081</v>
       </c>
       <c r="P3">
-        <v>0.971037110217116</v>
+        <v>0.9861425741609058</v>
       </c>
       <c r="Q3">
-        <v>23.48820964823954</v>
+        <v>23.23067758095294</v>
       </c>
       <c r="R3">
-        <v>-99.16867920488453</v>
+        <v>-99.16867920489042</v>
       </c>
       <c r="S3">
-        <v>152.9027901707932</v>
+        <v>153.5082155240651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.080316732488508</v>
+        <v>1.139115363846775</v>
       </c>
       <c r="D4">
-        <v>1.204570439751576</v>
+        <v>1.129367362550565</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.47442312624594</v>
+        <v>13.15337123909948</v>
       </c>
       <c r="G4">
-        <v>13.90918135296877</v>
+        <v>13.04081101565093</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
-        <v>1.07252753235464</v>
+        <v>1.094091933944654</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370753</v>
+        <v>0.8020156209369452</v>
       </c>
       <c r="P4">
-        <v>0.9499542621949204</v>
+        <v>0.9716809735970138</v>
       </c>
       <c r="Q4">
-        <v>21.66776978529776</v>
+        <v>21.17492449809372</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015473</v>
+        <v>-99.52967390016366</v>
       </c>
       <c r="S4">
-        <v>155.4333530898804</v>
+        <v>155.9660781567317</v>
       </c>
       <c r="T4">
-        <v>0.3005260784239185</v>
+        <v>0.01662689598746207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.07252753235228</v>
+        <v>1.094091933941814</v>
       </c>
       <c r="O5">
-        <v>0.8020156209381645</v>
+        <v>0.8020156209380345</v>
       </c>
       <c r="P5">
-        <v>0.9499542621986851</v>
+        <v>0.9716809736006186</v>
       </c>
       <c r="Q5">
-        <v>21.66776978543328</v>
+        <v>21.17492449821405</v>
       </c>
       <c r="R5">
-        <v>-99.52967389964088</v>
+        <v>-99.52967389964982</v>
       </c>
       <c r="S5">
-        <v>155.4333530899326</v>
+        <v>155.9660781567523</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.07252753235228</v>
+        <v>1.094091933941814</v>
       </c>
       <c r="O6">
-        <v>0.8020156209381646</v>
+        <v>0.8020156209380344</v>
       </c>
       <c r="P6">
-        <v>0.9499542621986851</v>
+        <v>0.9716809736006186</v>
       </c>
       <c r="Q6">
-        <v>21.66776978543328</v>
+        <v>21.17492449821405</v>
       </c>
       <c r="R6">
-        <v>-99.52967389964088</v>
+        <v>-99.52967389964982</v>
       </c>
       <c r="S6">
-        <v>155.4333530899326</v>
+        <v>155.9660781567523</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097148765520123</v>
+        <v>1.100328518102062</v>
       </c>
       <c r="O2">
-        <v>1.056966443489822</v>
+        <v>1.056966443489691</v>
       </c>
       <c r="P2">
-        <v>1.075792565945829</v>
+        <v>1.078684043328445</v>
       </c>
       <c r="Q2">
-        <v>28.76936937211673</v>
+        <v>28.69494879994408</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127293</v>
+        <v>-91.34292556127387</v>
       </c>
       <c r="S2">
-        <v>150.5679533869586</v>
+        <v>150.6714563446488</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097358418734905</v>
+        <v>1.11497583127695</v>
       </c>
       <c r="O3">
-        <v>0.8910570420389482</v>
+        <v>0.8910570420388081</v>
       </c>
       <c r="P3">
-        <v>0.971037110217116</v>
+        <v>0.9861425741609058</v>
       </c>
       <c r="Q3">
-        <v>23.48820964823954</v>
+        <v>23.23067758095294</v>
       </c>
       <c r="R3">
-        <v>-99.16867920488453</v>
+        <v>-99.16867920489042</v>
       </c>
       <c r="S3">
-        <v>152.9027901707932</v>
+        <v>153.5082155240651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.080316732488508</v>
+        <v>1.139115363846775</v>
       </c>
       <c r="D4">
-        <v>1.204570439751576</v>
+        <v>1.129367362550565</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.47442312624594</v>
+        <v>13.15337123909948</v>
       </c>
       <c r="G4">
-        <v>13.90918135296877</v>
+        <v>13.04081101565093</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
-        <v>1.07252753235464</v>
+        <v>1.094091933944654</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370753</v>
+        <v>0.8020156209369452</v>
       </c>
       <c r="P4">
-        <v>0.9499542621949204</v>
+        <v>0.9716809735970138</v>
       </c>
       <c r="Q4">
-        <v>21.66776978529776</v>
+        <v>21.17492449809372</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015473</v>
+        <v>-99.52967390016366</v>
       </c>
       <c r="S4">
-        <v>155.4333530898804</v>
+        <v>155.9660781567317</v>
       </c>
       <c r="T4">
-        <v>0.3005260784239185</v>
+        <v>0.01662689598746207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.07252753235228</v>
+        <v>1.094091933941814</v>
       </c>
       <c r="O5">
-        <v>0.8020156209381645</v>
+        <v>0.8020156209380345</v>
       </c>
       <c r="P5">
-        <v>0.9499542621986851</v>
+        <v>0.9716809736006186</v>
       </c>
       <c r="Q5">
-        <v>21.66776978543328</v>
+        <v>21.17492449821405</v>
       </c>
       <c r="R5">
-        <v>-99.52967389964088</v>
+        <v>-99.52967389964982</v>
       </c>
       <c r="S5">
-        <v>155.4333530899326</v>
+        <v>155.9660781567523</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.07252753235228</v>
+        <v>1.094091933941814</v>
       </c>
       <c r="O6">
-        <v>0.8020156209381646</v>
+        <v>0.8020156209380344</v>
       </c>
       <c r="P6">
-        <v>0.9499542621986851</v>
+        <v>0.9716809736006186</v>
       </c>
       <c r="Q6">
-        <v>21.66776978543328</v>
+        <v>21.17492449821405</v>
       </c>
       <c r="R6">
-        <v>-99.52967389964088</v>
+        <v>-99.52967389964982</v>
       </c>
       <c r="S6">
-        <v>155.4333530899326</v>
+        <v>155.9660781567523</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9785901730062248</v>
+        <v>0.9823570797624291</v>
       </c>
       <c r="O2">
-        <v>0.8500049525413703</v>
+        <v>0.8500049525413985</v>
       </c>
       <c r="P2">
-        <v>0.9434705746592489</v>
+        <v>0.9470352816400366</v>
       </c>
       <c r="Q2">
-        <v>25.69748152514505</v>
+        <v>25.60421679721608</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331648</v>
+        <v>-92.65381631331442</v>
       </c>
       <c r="S2">
-        <v>153.2429987118115</v>
+        <v>153.3646756024825</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9711870883177631</v>
+        <v>0.9909620258662259</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032112</v>
+        <v>0.3617201835029518</v>
       </c>
       <c r="P3">
-        <v>0.7468872106604768</v>
+        <v>0.7658715424613921</v>
       </c>
       <c r="Q3">
-        <v>8.191303825865146</v>
+        <v>8.140890997463137</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241788</v>
+        <v>-129.0915432241839</v>
       </c>
       <c r="S3">
-        <v>169.011015752797</v>
+        <v>169.4354422927971</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.091675195753116</v>
+        <v>3.121713491875282</v>
       </c>
       <c r="D4">
-        <v>3.154004807858017</v>
+        <v>3.116474036754824</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.69959013029901</v>
+        <v>36.04644249734162</v>
       </c>
       <c r="G4">
-        <v>36.41931049684401</v>
+        <v>35.98594248085755</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
-        <v>0.8415023556278636</v>
+        <v>0.8671536088045968</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.841502355628045</v>
+        <v>0.8671536088050124</v>
       </c>
       <c r="Q4">
-        <v>0.3405644958598846</v>
+        <v>-0.02774767023633462</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.6594355045003</v>
+        <v>179.9722523294118</v>
       </c>
       <c r="T4">
-        <v>0.3124390185733327</v>
+        <v>0.01501820623827008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8415023556205892</v>
+        <v>0.8671536087964398</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8415023556368322</v>
+        <v>0.8671536088130937</v>
       </c>
       <c r="Q5">
-        <v>0.3405644968153048</v>
+        <v>-0.02774766932999266</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.6594355054208</v>
+        <v>179.9722523285046</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8415023556205893</v>
+        <v>0.8671536087964398</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8415023556368321</v>
+        <v>0.8671536088130937</v>
       </c>
       <c r="Q6">
-        <v>0.3405644968152999</v>
+        <v>-0.02774766932999013</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.6594355054208</v>
+        <v>179.9722523285046</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9785901730062248</v>
+        <v>0.9823570797624291</v>
       </c>
       <c r="O2">
-        <v>0.8500049525413703</v>
+        <v>0.8500049525413985</v>
       </c>
       <c r="P2">
-        <v>0.9434705746592489</v>
+        <v>0.9470352816400366</v>
       </c>
       <c r="Q2">
-        <v>25.69748152514505</v>
+        <v>25.60421679721608</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331648</v>
+        <v>-92.65381631331442</v>
       </c>
       <c r="S2">
-        <v>153.2429987118115</v>
+        <v>153.3646756024825</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9711870883177631</v>
+        <v>0.9909620258662259</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032112</v>
+        <v>0.3617201835029518</v>
       </c>
       <c r="P3">
-        <v>0.7468872106604768</v>
+        <v>0.7658715424613921</v>
       </c>
       <c r="Q3">
-        <v>8.191303825865146</v>
+        <v>8.140890997463137</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241788</v>
+        <v>-129.0915432241839</v>
       </c>
       <c r="S3">
-        <v>169.011015752797</v>
+        <v>169.4354422927971</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.091675195753116</v>
+        <v>3.121713491875282</v>
       </c>
       <c r="D4">
-        <v>3.154004807858017</v>
+        <v>3.116474036754824</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.69959013029901</v>
+        <v>36.04644249734162</v>
       </c>
       <c r="G4">
-        <v>36.41931049684401</v>
+        <v>35.98594248085755</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
-        <v>0.8415023556278636</v>
+        <v>0.8671536088045968</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.841502355628045</v>
+        <v>0.8671536088050124</v>
       </c>
       <c r="Q4">
-        <v>0.3405644958598846</v>
+        <v>-0.02774767023633462</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.6594355045003</v>
+        <v>179.9722523294118</v>
       </c>
       <c r="T4">
-        <v>0.3124390185733327</v>
+        <v>0.01501820623827008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8415023556205892</v>
+        <v>0.8671536087964398</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8415023556368322</v>
+        <v>0.8671536088130937</v>
       </c>
       <c r="Q5">
-        <v>0.3405644968153048</v>
+        <v>-0.02774766932999266</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.6594355054208</v>
+        <v>179.9722523285046</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8415023556205893</v>
+        <v>0.8671536087964398</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8415023556368321</v>
+        <v>0.8671536088130937</v>
       </c>
       <c r="Q6">
-        <v>0.3405644968152999</v>
+        <v>-0.02774766932999013</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.6594355054208</v>
+        <v>179.9722523285046</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9978587634429709</v>
+        <v>1.001179430462871</v>
       </c>
       <c r="O2">
-        <v>0.9581045791310591</v>
+        <v>0.9581045791311117</v>
       </c>
       <c r="P2">
-        <v>0.9755781886067438</v>
+        <v>0.9784031657539733</v>
       </c>
       <c r="Q2">
-        <v>28.64578183580825</v>
+        <v>28.57382899863371</v>
       </c>
       <c r="R2">
-        <v>-91.55789971897902</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>150.568400891489</v>
+        <v>150.6944797129859</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000811930752564</v>
+        <v>1.017584478728204</v>
       </c>
       <c r="O3">
-        <v>0.8139299031204182</v>
+        <v>0.8139299031202569</v>
       </c>
       <c r="P3">
-        <v>0.8802725818413841</v>
+        <v>0.8938268193309702</v>
       </c>
       <c r="Q3">
-        <v>23.42742500183766</v>
+        <v>23.21733726955227</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736566</v>
+        <v>-99.6527356173652</v>
       </c>
       <c r="S3">
-        <v>152.6443321757881</v>
+        <v>153.325767402337</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9482639053405554</v>
+        <v>0.997332929070641</v>
       </c>
       <c r="D4">
-        <v>1.052567383293125</v>
+        <v>0.9880616902429188</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10.94960842022351</v>
+        <v>11.51620870141225</v>
       </c>
       <c r="G4">
-        <v>12.15400124169012</v>
+        <v>11.40915365675412</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
-        <v>0.9574739501892685</v>
+        <v>0.9776014779530381</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934761</v>
+        <v>0.7019303077933169</v>
       </c>
       <c r="P4">
-        <v>0.8695631603227794</v>
+        <v>0.8913893647422992</v>
       </c>
       <c r="Q4">
-        <v>21.44662537309588</v>
+        <v>20.81699209251341</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041893</v>
+        <v>-97.63434507041619</v>
       </c>
       <c r="S4">
-        <v>156.5800438134807</v>
+        <v>157.000643960074</v>
       </c>
       <c r="T4">
-        <v>0.2693618479480511</v>
+        <v>0.01511602824412059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9574739501877176</v>
+        <v>0.977601477950712</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992609</v>
+        <v>0.7019303077991018</v>
       </c>
       <c r="P5">
-        <v>0.869563160328039</v>
+        <v>0.8913893647470541</v>
       </c>
       <c r="Q5">
-        <v>21.44662537337073</v>
+        <v>20.81699209277932</v>
       </c>
       <c r="R5">
-        <v>-97.63434506973817</v>
+        <v>-97.63434506973545</v>
       </c>
       <c r="S5">
-        <v>156.5800438134058</v>
+        <v>157.0006439599645</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9574739501877177</v>
+        <v>0.977601477950712</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992609</v>
+        <v>0.7019303077991018</v>
       </c>
       <c r="P6">
-        <v>0.869563160328039</v>
+        <v>0.8913893647470541</v>
       </c>
       <c r="Q6">
-        <v>21.44662537337073</v>
+        <v>20.81699209277932</v>
       </c>
       <c r="R6">
-        <v>-97.63434506973817</v>
+        <v>-97.63434506973546</v>
       </c>
       <c r="S6">
-        <v>156.5800438134058</v>
+        <v>157.0006439599645</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9978587634429709</v>
+        <v>1.001179430462871</v>
       </c>
       <c r="O2">
-        <v>0.9581045791310591</v>
+        <v>0.9581045791311117</v>
       </c>
       <c r="P2">
-        <v>0.9755781886067438</v>
+        <v>0.9784031657539733</v>
       </c>
       <c r="Q2">
-        <v>28.64578183580825</v>
+        <v>28.57382899863371</v>
       </c>
       <c r="R2">
-        <v>-91.55789971897902</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>150.568400891489</v>
+        <v>150.6944797129859</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000811930752564</v>
+        <v>1.017584478728204</v>
       </c>
       <c r="O3">
-        <v>0.8139299031204182</v>
+        <v>0.8139299031202569</v>
       </c>
       <c r="P3">
-        <v>0.8802725818413841</v>
+        <v>0.8938268193309702</v>
       </c>
       <c r="Q3">
-        <v>23.42742500183766</v>
+        <v>23.21733726955227</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736566</v>
+        <v>-99.6527356173652</v>
       </c>
       <c r="S3">
-        <v>152.6443321757881</v>
+        <v>153.325767402337</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9482639053405554</v>
+        <v>0.997332929070641</v>
       </c>
       <c r="D4">
-        <v>1.052567383293125</v>
+        <v>0.9880616902429188</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10.94960842022351</v>
+        <v>11.51620870141225</v>
       </c>
       <c r="G4">
-        <v>12.15400124169012</v>
+        <v>11.40915365675412</v>
       </c>
       <c r="H4">
-        <v>7.93012958641286</v>
+        <v>1.270895224171274</v>
       </c>
       <c r="I4">
-        <v>53.27973681810573</v>
+        <v>-1154.802470959659</v>
       </c>
       <c r="J4">
-        <v>1.113751880243478</v>
+        <v>1.113751880305505</v>
       </c>
       <c r="K4">
-        <v>3.006397543763091</v>
+        <v>3.006397543882821</v>
       </c>
       <c r="L4">
-        <v>1.113751880233404</v>
+        <v>1.113751880225707</v>
       </c>
       <c r="M4">
-        <v>3.006397543745021</v>
+        <v>3.006397543758514</v>
       </c>
       <c r="N4">
-        <v>0.9574739501892685</v>
+        <v>0.9776014779530381</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934761</v>
+        <v>0.7019303077933169</v>
       </c>
       <c r="P4">
-        <v>0.8695631603227794</v>
+        <v>0.8913893647422992</v>
       </c>
       <c r="Q4">
-        <v>21.44662537309588</v>
+        <v>20.81699209251341</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041893</v>
+        <v>-97.63434507041619</v>
       </c>
       <c r="S4">
-        <v>156.5800438134807</v>
+        <v>157.000643960074</v>
       </c>
       <c r="T4">
-        <v>0.2693618479480511</v>
+        <v>0.01511602824412059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9574739501877176</v>
+        <v>0.977601477950712</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992609</v>
+        <v>0.7019303077991018</v>
       </c>
       <c r="P5">
-        <v>0.869563160328039</v>
+        <v>0.8913893647470541</v>
       </c>
       <c r="Q5">
-        <v>21.44662537337073</v>
+        <v>20.81699209277932</v>
       </c>
       <c r="R5">
-        <v>-97.63434506973817</v>
+        <v>-97.63434506973545</v>
       </c>
       <c r="S5">
-        <v>156.5800438134058</v>
+        <v>157.0006439599645</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9574739501877177</v>
+        <v>0.977601477950712</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992609</v>
+        <v>0.7019303077991018</v>
       </c>
       <c r="P6">
-        <v>0.869563160328039</v>
+        <v>0.8913893647470541</v>
       </c>
       <c r="Q6">
-        <v>21.44662537337073</v>
+        <v>20.81699209277932</v>
       </c>
       <c r="R6">
-        <v>-97.63434506973817</v>
+        <v>-97.63434506973546</v>
       </c>
       <c r="S6">
-        <v>156.5800438134058</v>
+        <v>157.0006439599645</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,16 +10541,16 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574464</v>
       </c>
       <c r="P2">
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.9896511673971</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201599</v>
       </c>
       <c r="S2">
         <v>153.5693903185486</v>
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214669992</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512941</v>
+        <v>0.2917056037512956</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644379</v>
+        <v>0.8906876332644393</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062566</v>
+        <v>7.091324389062635</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550794</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726614</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937071</v>
+        <v>3.709154423937056</v>
       </c>
       <c r="D4">
-        <v>3.709154423937071</v>
+        <v>3.709154423937056</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251901</v>
       </c>
       <c r="G4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251901</v>
       </c>
       <c r="H4">
-        <v>4.13037215130903</v>
+        <v>0.6620035349774039</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>-1154.805794119538</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544437</v>
+        <v>0.6277319164167324</v>
       </c>
       <c r="K4">
-        <v>2.898438697943254</v>
+        <v>2.898438698062033</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642493</v>
+        <v>0.6277319163562595</v>
       </c>
       <c r="M4">
-        <v>2.898438697959372</v>
+        <v>2.898438697974753</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032092</v>
+        <v>0.9526279648032081</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047555</v>
+        <v>0.9526279648047562</v>
       </c>
       <c r="Q4">
-        <v>-1.248512564096677E-11</v>
+        <v>-1.23848654564764E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999813</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647942846</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136791</v>
+        <v>0.95262796481368</v>
       </c>
       <c r="Q5">
-        <v>4.605491295463881E-10</v>
+        <v>4.606489451618451E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647942845</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136791</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q6">
-        <v>4.605468747922933E-10</v>
+        <v>4.606439481764422E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995311</v>
       </c>
     </row>
   </sheetData>
